--- a/biology/Botanique/Sans_Pareil_de_Peasgood/Sans_Pareil_de_Peasgood.xlsx
+++ b/biology/Botanique/Sans_Pareil_de_Peasgood/Sans_Pareil_de_Peasgood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peasgood Nonsuch est le nom d'un cultivar de pommier domestique.
-La pomme « Sans Pareil de Peasgood » encore appelée « Peasgood's non such » est une des plus grosses pommes. Elle est proche de la « Crimson peasgood » qui est un de ses hybrides (mutants[1]).
+La pomme « Sans Pareil de Peasgood » encore appelée « Peasgood's non such » est une des plus grosses pommes. Elle est proche de la « Crimson peasgood » qui est un de ses hybrides (mutants).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peasgood's Nonsuch[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peasgood's Nonsuch.
 Sans Pareille Peasgood.
 Attention, il existe une pomme appelée "Non Pareil(lle)" qui est différente d'aspect.
 </t>
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emma Peasgood (née Manby) de Grantham, Lincolnshire (Angleterre), sema quelques pépins d'origine inconnue vers 1860. L'un d'eux donna un pommier aux fruits énormes. En 1872, elle présente sa variété à la Royal Horticultural Society de Londres et obtient une récompense. Elle est mise au commerce en 1874 par W. et J. Brown[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emma Peasgood (née Manby) de Grantham, Lincolnshire (Angleterre), sema quelques pépins d'origine inconnue vers 1860. L'un d'eux donna un pommier aux fruits énormes. En 1872, elle présente sa variété à la Royal Horticultural Society de Londres et obtient une récompense. Elle est mise au commerce en 1874 par W. et J. Brown.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Descendants:
 Charles Ross
@@ -610,14 +628,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Les rameaux sont érigés, forts, droits, à peine coudés aux consoles. Leur écorce est vert olive à l'ombre, rouge bronzé au soleil. Les entre-nœuds de longueur irrégulière portent des lenticelles arrondies, blanchâtres, assez clairsemées.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rameaux sont érigés, forts, droits, à peine coudés aux consoles. Leur écorce est vert olive à l'ombre, rouge bronzé au soleil. Les entre-nœuds de longueur irrégulière portent des lenticelles arrondies, blanchâtres, assez clairsemées.
 Grandes, vertes, brillantes au-dessus, les feuilles sont elliptiques, arrondies.
-Les yeux, très apprimés[Note 1], sont triangulaires et aigus[3].
-Fruit
-Les très gros fruits qui pèsent pour certains de 600 à 800 g sont à maturité vert-jaune, striés de rouge.
-La chair est blanche, sucrée, juteuse et parfumée. Cueillies trop mûres, ces pommes deviennent farineuses.
-Réputées être mûres en septembre en région parisienne, elles le sont en août dans le sud-ouest et même fin juillet durant les étés 2005 ou 2006 qui suivaient des printemps précoces.
+Les yeux, très apprimés[Note 1], sont triangulaires et aigus.
 </t>
         </is>
       </c>
@@ -643,10 +662,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les très gros fruits qui pèsent pour certains de 600 à 800 g sont à maturité vert-jaune, striés de rouge.
+La chair est blanche, sucrée, juteuse et parfumée. Cueillies trop mûres, ces pommes deviennent farineuses.
+Réputées être mûres en septembre en région parisienne, elles le sont en août dans le sud-ouest et même fin juillet durant les étés 2005 ou 2006 qui suivaient des printemps précoces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sans_Pareil_de_Peasgood</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sans_Pareil_de_Peasgood</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La floraison est mi-tardive et la fertilité très bonne.
 La grosseur des fruits ne permet la culture en haute tige qu'en position très abritée.
